--- a/2018/Norte/AM/relatorioAM.xlsx
+++ b/2018/Norte/AM/relatorioAM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M460"/>
+  <dimension ref="A1:O460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,16 @@
           <t>Cargo</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>SQ_CANDIDATO</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>DS_GENERO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -556,6 +566,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N2" t="n">
+        <v>40000600837</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -613,6 +631,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N3" t="n">
+        <v>40000602404</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -670,6 +696,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N4" t="n">
+        <v>40000602405</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -727,6 +761,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N5" t="n">
+        <v>40000602406</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -784,6 +826,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N6" t="n">
+        <v>40000602407</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -841,6 +891,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N7" t="n">
+        <v>40000602408</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -898,6 +956,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N8" t="n">
+        <v>40000602409</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -955,6 +1021,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N9" t="n">
+        <v>40000602410</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1012,6 +1086,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N10" t="n">
+        <v>40000602411</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1069,6 +1151,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N11" t="n">
+        <v>40000602412</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1126,6 +1216,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N12" t="n">
+        <v>40000602413</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1183,6 +1281,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N13" t="n">
+        <v>40000602414</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1240,6 +1346,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N14" t="n">
+        <v>40000602415</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1297,6 +1411,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N15" t="n">
+        <v>40000602416</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1354,6 +1476,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N16" t="n">
+        <v>40000602418</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1411,6 +1541,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N17" t="n">
+        <v>40000602421</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1468,6 +1606,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N18" t="n">
+        <v>40000604575</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1525,6 +1671,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N19" t="n">
+        <v>40000604576</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1582,6 +1736,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N20" t="n">
+        <v>40000604577</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1639,6 +1801,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N21" t="n">
+        <v>40000604578</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1696,6 +1866,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N22" t="n">
+        <v>40000604617</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1753,6 +1931,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N23" t="n">
+        <v>40000604618</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1810,6 +1996,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N24" t="n">
+        <v>40000604624</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1867,6 +2061,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N25" t="n">
+        <v>40000604883</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1924,6 +2126,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N26" t="n">
+        <v>40000604884</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1981,6 +2191,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N27" t="n">
+        <v>40000604885</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2038,6 +2256,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N28" t="n">
+        <v>40000604886</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2095,6 +2321,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N29" t="n">
+        <v>40000604887</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2152,6 +2386,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N30" t="n">
+        <v>40000604888</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2209,6 +2451,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N31" t="n">
+        <v>40000604889</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2266,6 +2516,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N32" t="n">
+        <v>40000608893</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2323,6 +2581,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N33" t="n">
+        <v>40000608894</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2380,6 +2646,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N34" t="n">
+        <v>40000608895</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2437,6 +2711,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N35" t="n">
+        <v>40000608896</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2494,6 +2776,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N36" t="n">
+        <v>40000608897</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2551,6 +2841,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N37" t="n">
+        <v>40000608898</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2608,6 +2906,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N38" t="n">
+        <v>40000608899</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2665,6 +2971,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N39" t="n">
+        <v>40000608900</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2722,6 +3036,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N40" t="n">
+        <v>40000608901</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2779,6 +3101,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N41" t="n">
+        <v>40000608902</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2836,6 +3166,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N42" t="n">
+        <v>40000608903</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2893,6 +3231,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N43" t="n">
+        <v>40000608904</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2950,6 +3296,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N44" t="n">
+        <v>40000608905</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3007,6 +3361,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N45" t="n">
+        <v>40000610344</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3064,6 +3426,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N46" t="n">
+        <v>40000610345</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3121,6 +3491,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N47" t="n">
+        <v>40000610346</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3178,6 +3556,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N48" t="n">
+        <v>40000610347</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3235,6 +3621,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N49" t="n">
+        <v>40000610348</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3292,6 +3686,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N50" t="n">
+        <v>40000610349</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3349,6 +3751,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N51" t="n">
+        <v>40000610350</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3406,6 +3816,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N52" t="n">
+        <v>40000610351</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3463,6 +3881,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N53" t="n">
+        <v>40000610352</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3520,6 +3946,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N54" t="n">
+        <v>40000610353</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3577,6 +4011,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N55" t="n">
+        <v>40000610354</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3634,6 +4076,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N56" t="n">
+        <v>40000610355</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3691,6 +4141,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N57" t="n">
+        <v>40000610356</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3748,6 +4206,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N58" t="n">
+        <v>40000610357</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3805,6 +4271,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N59" t="n">
+        <v>40000610358</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3862,6 +4336,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N60" t="n">
+        <v>40000610405</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3919,6 +4401,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N61" t="n">
+        <v>40000610406</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3976,6 +4466,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N62" t="n">
+        <v>40000610407</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4033,6 +4531,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N63" t="n">
+        <v>40000610408</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4090,6 +4596,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N64" t="n">
+        <v>40000610409</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4147,6 +4661,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N65" t="n">
+        <v>40000610410</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4204,6 +4726,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N66" t="n">
+        <v>40000610411</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4261,6 +4791,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N67" t="n">
+        <v>40000610412</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4318,6 +4856,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N68" t="n">
+        <v>40000610413</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4375,6 +4921,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N69" t="n">
+        <v>40000610414</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4432,6 +4986,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N70" t="n">
+        <v>40000610415</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4489,6 +5051,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N71" t="n">
+        <v>40000610416</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4546,6 +5116,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N72" t="n">
+        <v>40000610417</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4603,6 +5181,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N73" t="n">
+        <v>40000610418</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4660,6 +5246,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N74" t="n">
+        <v>40000610419</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4717,6 +5311,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N75" t="n">
+        <v>40000610420</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4774,6 +5376,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N76" t="n">
+        <v>40000610421</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4831,6 +5441,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N77" t="n">
+        <v>40000610422</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4888,6 +5506,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N78" t="n">
+        <v>40000610423</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4945,6 +5571,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N79" t="n">
+        <v>40000610424</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5002,6 +5636,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N80" t="n">
+        <v>40000610425</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5059,6 +5701,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N81" t="n">
+        <v>40000610426</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5116,6 +5766,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N82" t="n">
+        <v>40000610427</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5173,6 +5831,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N83" t="n">
+        <v>40000610428</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5230,6 +5896,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N84" t="n">
+        <v>40000610429</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5287,6 +5961,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N85" t="n">
+        <v>40000610430</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5344,6 +6026,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N86" t="n">
+        <v>40000610431</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5401,6 +6091,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N87" t="n">
+        <v>40000610432</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5458,6 +6156,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N88" t="n">
+        <v>40000610433</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5515,6 +6221,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N89" t="n">
+        <v>40000610434</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5572,6 +6286,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N90" t="n">
+        <v>40000610435</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5629,6 +6351,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N91" t="n">
+        <v>40000610436</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5686,6 +6416,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N92" t="n">
+        <v>40000612601</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5743,6 +6481,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N93" t="n">
+        <v>40000615433</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5800,6 +6546,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N94" t="n">
+        <v>40000615434</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5857,6 +6611,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N95" t="n">
+        <v>40000618309</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -5914,6 +6676,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N96" t="n">
+        <v>40000618310</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5971,6 +6741,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N97" t="n">
+        <v>40000618311</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6028,6 +6806,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N98" t="n">
+        <v>40000618312</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6085,6 +6871,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N99" t="n">
+        <v>40000618313</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6142,6 +6936,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N100" t="n">
+        <v>40000618314</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6199,6 +7001,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N101" t="n">
+        <v>40000618315</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6256,6 +7066,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N102" t="n">
+        <v>40000618316</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6313,6 +7131,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N103" t="n">
+        <v>40000618317</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6370,6 +7196,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N104" t="n">
+        <v>40000618318</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6427,6 +7261,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N105" t="n">
+        <v>40000618319</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6484,6 +7326,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N106" t="n">
+        <v>40000618320</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6541,6 +7391,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N107" t="n">
+        <v>40000618321</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6598,6 +7456,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N108" t="n">
+        <v>40000618322</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6655,6 +7521,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N109" t="n">
+        <v>40000621417</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6712,6 +7586,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N110" t="n">
+        <v>40000623401</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -6769,6 +7651,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N111" t="n">
+        <v>40000623402</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -6826,6 +7716,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N112" t="n">
+        <v>40000623403</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -6883,6 +7781,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N113" t="n">
+        <v>40000623404</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -6940,6 +7846,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N114" t="n">
+        <v>40000623405</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -6997,6 +7911,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N115" t="n">
+        <v>40000623406</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -7054,6 +7976,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N116" t="n">
+        <v>40000623407</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -7111,6 +8041,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N117" t="n">
+        <v>40000623408</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -7168,6 +8106,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N118" t="n">
+        <v>40000623409</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -7225,6 +8171,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N119" t="n">
+        <v>40000623410</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -7282,6 +8236,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N120" t="n">
+        <v>40000623411</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -7339,6 +8301,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N121" t="n">
+        <v>40000623412</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -7396,6 +8366,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N122" t="n">
+        <v>40000623413</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -7453,6 +8431,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N123" t="n">
+        <v>40000623414</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7510,6 +8496,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N124" t="n">
+        <v>40000623415</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7567,6 +8561,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N125" t="n">
+        <v>40000623416</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7624,6 +8626,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N126" t="n">
+        <v>40000627710</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -7681,6 +8691,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N127" t="n">
+        <v>40000627713</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -7738,6 +8756,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N128" t="n">
+        <v>40000627714</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -7795,6 +8821,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N129" t="n">
+        <v>40000627717</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -7852,6 +8886,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N130" t="n">
+        <v>40000627718</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -7909,6 +8951,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N131" t="n">
+        <v>40000627723</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -7966,6 +9016,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N132" t="n">
+        <v>40000627724</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -8023,6 +9081,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N133" t="n">
+        <v>40000627733</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -8080,6 +9146,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N134" t="n">
+        <v>40000627748</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8137,6 +9211,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N135" t="n">
+        <v>40000627878</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -8194,6 +9276,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N136" t="n">
+        <v>40000627977</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -8251,6 +9341,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N137" t="n">
+        <v>40000628089</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -8308,6 +9406,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N138" t="n">
+        <v>40000628090</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -8365,6 +9471,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N139" t="n">
+        <v>40000628091</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -8422,6 +9536,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N140" t="n">
+        <v>40000628094</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -8479,6 +9601,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N141" t="n">
+        <v>40000628102</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -8536,6 +9666,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N142" t="n">
+        <v>40000628257</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -8593,6 +9731,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N143" t="n">
+        <v>40000628262</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -8650,6 +9796,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N144" t="n">
+        <v>40000628264</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -8707,6 +9861,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N145" t="n">
+        <v>40000628265</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -8764,6 +9926,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N146" t="n">
+        <v>40000628372</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -8821,6 +9991,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N147" t="n">
+        <v>40000628387</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -8878,6 +10056,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N148" t="n">
+        <v>40000629492</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -8935,6 +10121,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N149" t="n">
+        <v>40000629571</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -8992,6 +10186,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N150" t="n">
+        <v>40000629719</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -9049,6 +10251,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N151" t="n">
+        <v>40000629720</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -9106,6 +10316,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N152" t="n">
+        <v>40000629721</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -9163,6 +10381,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N153" t="n">
+        <v>40000629722</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -9220,6 +10446,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N154" t="n">
+        <v>40000629950</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -9277,6 +10511,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N155" t="n">
+        <v>40000600837</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -9334,6 +10576,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N156" t="n">
+        <v>40000602404</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -9391,6 +10641,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N157" t="n">
+        <v>40000602405</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -9448,6 +10706,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N158" t="n">
+        <v>40000602406</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -9505,6 +10771,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N159" t="n">
+        <v>40000602407</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -9562,6 +10836,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N160" t="n">
+        <v>40000602408</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -9619,6 +10901,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N161" t="n">
+        <v>40000602409</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -9676,6 +10966,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N162" t="n">
+        <v>40000602410</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -9733,6 +11031,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N163" t="n">
+        <v>40000602411</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -9790,6 +11096,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N164" t="n">
+        <v>40000602412</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -9847,6 +11161,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N165" t="n">
+        <v>40000602413</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -9904,6 +11226,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N166" t="n">
+        <v>40000602414</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -9961,6 +11291,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N167" t="n">
+        <v>40000602415</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -10018,6 +11356,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N168" t="n">
+        <v>40000602416</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -10075,6 +11421,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N169" t="n">
+        <v>40000602418</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -10132,6 +11486,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N170" t="n">
+        <v>40000602421</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -10189,6 +11551,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N171" t="n">
+        <v>40000604575</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -10246,6 +11616,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N172" t="n">
+        <v>40000604576</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -10303,6 +11681,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N173" t="n">
+        <v>40000604577</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -10360,6 +11746,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N174" t="n">
+        <v>40000604578</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -10417,6 +11811,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N175" t="n">
+        <v>40000604617</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -10474,6 +11876,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N176" t="n">
+        <v>40000604618</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -10531,6 +11941,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N177" t="n">
+        <v>40000604624</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -10588,6 +12006,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N178" t="n">
+        <v>40000604883</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -10645,6 +12071,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N179" t="n">
+        <v>40000604884</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -10702,6 +12136,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N180" t="n">
+        <v>40000604885</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -10759,6 +12201,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N181" t="n">
+        <v>40000604886</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -10816,6 +12266,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N182" t="n">
+        <v>40000604887</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -10873,6 +12331,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N183" t="n">
+        <v>40000604888</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -10930,6 +12396,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N184" t="n">
+        <v>40000604889</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -10987,6 +12461,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N185" t="n">
+        <v>40000608893</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -11044,6 +12526,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N186" t="n">
+        <v>40000608894</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -11101,6 +12591,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N187" t="n">
+        <v>40000608895</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -11158,6 +12656,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N188" t="n">
+        <v>40000608896</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -11215,6 +12721,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N189" t="n">
+        <v>40000608897</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -11272,6 +12786,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N190" t="n">
+        <v>40000608898</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -11329,6 +12851,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N191" t="n">
+        <v>40000608899</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -11386,6 +12916,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N192" t="n">
+        <v>40000608900</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -11443,6 +12981,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N193" t="n">
+        <v>40000608901</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -11500,6 +13046,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N194" t="n">
+        <v>40000608902</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -11557,6 +13111,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N195" t="n">
+        <v>40000608903</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -11614,6 +13176,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N196" t="n">
+        <v>40000608904</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -11671,6 +13241,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N197" t="n">
+        <v>40000608905</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -11728,6 +13306,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N198" t="n">
+        <v>40000610344</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -11785,6 +13371,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N199" t="n">
+        <v>40000610345</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -11842,6 +13436,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N200" t="n">
+        <v>40000610346</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -11899,6 +13501,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N201" t="n">
+        <v>40000610347</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -11956,6 +13566,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N202" t="n">
+        <v>40000610348</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -12013,6 +13631,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N203" t="n">
+        <v>40000610349</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -12070,6 +13696,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N204" t="n">
+        <v>40000610350</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -12127,6 +13761,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N205" t="n">
+        <v>40000610351</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -12184,6 +13826,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N206" t="n">
+        <v>40000610352</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -12241,6 +13891,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N207" t="n">
+        <v>40000610353</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -12298,6 +13956,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N208" t="n">
+        <v>40000610354</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -12355,6 +14021,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N209" t="n">
+        <v>40000610355</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -12412,6 +14086,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N210" t="n">
+        <v>40000610356</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -12469,6 +14151,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N211" t="n">
+        <v>40000610357</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -12526,6 +14216,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N212" t="n">
+        <v>40000610358</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -12583,6 +14281,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N213" t="n">
+        <v>40000610405</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -12640,6 +14346,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N214" t="n">
+        <v>40000610406</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -12697,6 +14411,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N215" t="n">
+        <v>40000610407</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -12754,6 +14476,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N216" t="n">
+        <v>40000610408</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -12811,6 +14541,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N217" t="n">
+        <v>40000610409</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -12868,6 +14606,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N218" t="n">
+        <v>40000610410</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -12925,6 +14671,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N219" t="n">
+        <v>40000610411</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -12982,6 +14736,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N220" t="n">
+        <v>40000610412</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -13039,6 +14801,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N221" t="n">
+        <v>40000610413</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -13096,6 +14866,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N222" t="n">
+        <v>40000610414</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -13153,6 +14931,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N223" t="n">
+        <v>40000610415</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -13210,6 +14996,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N224" t="n">
+        <v>40000610416</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -13267,6 +15061,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N225" t="n">
+        <v>40000610417</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -13324,6 +15126,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N226" t="n">
+        <v>40000610418</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -13381,6 +15191,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N227" t="n">
+        <v>40000610419</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -13438,6 +15256,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N228" t="n">
+        <v>40000610420</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -13495,6 +15321,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N229" t="n">
+        <v>40000610421</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -13552,6 +15386,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N230" t="n">
+        <v>40000610422</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -13609,6 +15451,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N231" t="n">
+        <v>40000610423</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -13666,6 +15516,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N232" t="n">
+        <v>40000610424</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -13723,6 +15581,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N233" t="n">
+        <v>40000610425</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -13780,6 +15646,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N234" t="n">
+        <v>40000610426</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -13837,6 +15711,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N235" t="n">
+        <v>40000610427</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -13894,6 +15776,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N236" t="n">
+        <v>40000610428</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -13951,6 +15841,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N237" t="n">
+        <v>40000610429</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -14008,6 +15906,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N238" t="n">
+        <v>40000610430</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -14065,6 +15971,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N239" t="n">
+        <v>40000610431</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -14122,6 +16036,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N240" t="n">
+        <v>40000610432</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -14179,6 +16101,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N241" t="n">
+        <v>40000610433</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -14236,6 +16166,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N242" t="n">
+        <v>40000610434</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -14293,6 +16231,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N243" t="n">
+        <v>40000610435</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -14350,6 +16296,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N244" t="n">
+        <v>40000610436</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -14407,6 +16361,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N245" t="n">
+        <v>40000612601</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -14464,6 +16426,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N246" t="n">
+        <v>40000615433</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -14521,6 +16491,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N247" t="n">
+        <v>40000615434</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -14578,6 +16556,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N248" t="n">
+        <v>40000618309</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -14635,6 +16621,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N249" t="n">
+        <v>40000618310</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -14692,6 +16686,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N250" t="n">
+        <v>40000618311</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -14749,6 +16751,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N251" t="n">
+        <v>40000618312</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -14806,6 +16816,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N252" t="n">
+        <v>40000618313</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -14863,6 +16881,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N253" t="n">
+        <v>40000618314</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -14920,6 +16946,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N254" t="n">
+        <v>40000618315</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -14977,6 +17011,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N255" t="n">
+        <v>40000618316</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -15034,6 +17076,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N256" t="n">
+        <v>40000618317</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -15091,6 +17141,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N257" t="n">
+        <v>40000618318</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -15148,6 +17206,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N258" t="n">
+        <v>40000618319</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -15205,6 +17271,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N259" t="n">
+        <v>40000618320</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -15262,6 +17336,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N260" t="n">
+        <v>40000618321</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -15319,6 +17401,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N261" t="n">
+        <v>40000618322</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -15376,6 +17466,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N262" t="n">
+        <v>40000621417</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -15433,6 +17531,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N263" t="n">
+        <v>40000623401</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -15490,6 +17596,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N264" t="n">
+        <v>40000623402</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -15547,6 +17661,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N265" t="n">
+        <v>40000623403</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -15604,6 +17726,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N266" t="n">
+        <v>40000623404</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -15661,6 +17791,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N267" t="n">
+        <v>40000623405</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -15718,6 +17856,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N268" t="n">
+        <v>40000623406</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -15775,6 +17921,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N269" t="n">
+        <v>40000623407</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -15832,6 +17986,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N270" t="n">
+        <v>40000623408</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -15889,6 +18051,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N271" t="n">
+        <v>40000623409</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -15946,6 +18116,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N272" t="n">
+        <v>40000623410</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -16003,6 +18181,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N273" t="n">
+        <v>40000623411</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -16060,6 +18246,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N274" t="n">
+        <v>40000623412</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -16117,6 +18311,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N275" t="n">
+        <v>40000623413</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -16174,6 +18376,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N276" t="n">
+        <v>40000623414</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -16231,6 +18441,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N277" t="n">
+        <v>40000623415</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -16288,6 +18506,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N278" t="n">
+        <v>40000623416</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -16345,6 +18571,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N279" t="n">
+        <v>40000627710</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -16402,6 +18636,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N280" t="n">
+        <v>40000627713</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -16459,6 +18701,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N281" t="n">
+        <v>40000627714</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -16516,6 +18766,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N282" t="n">
+        <v>40000627717</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -16573,6 +18831,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N283" t="n">
+        <v>40000627718</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -16630,6 +18896,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N284" t="n">
+        <v>40000627723</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -16687,6 +18961,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N285" t="n">
+        <v>40000627724</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -16744,6 +19026,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N286" t="n">
+        <v>40000627733</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -16801,6 +19091,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N287" t="n">
+        <v>40000627748</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -16858,6 +19156,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N288" t="n">
+        <v>40000627878</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -16915,6 +19221,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N289" t="n">
+        <v>40000627977</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -16972,6 +19286,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N290" t="n">
+        <v>40000628089</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -17029,6 +19351,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N291" t="n">
+        <v>40000628090</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -17086,6 +19416,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N292" t="n">
+        <v>40000628091</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -17143,6 +19481,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N293" t="n">
+        <v>40000628094</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -17200,6 +19546,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N294" t="n">
+        <v>40000628102</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -17257,6 +19611,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N295" t="n">
+        <v>40000628257</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -17314,6 +19676,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N296" t="n">
+        <v>40000628262</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -17371,6 +19741,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N297" t="n">
+        <v>40000628264</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -17428,6 +19806,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N298" t="n">
+        <v>40000628265</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -17485,6 +19871,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N299" t="n">
+        <v>40000628372</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -17542,6 +19936,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N300" t="n">
+        <v>40000628387</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -17599,6 +20001,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N301" t="n">
+        <v>40000629492</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -17656,6 +20066,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N302" t="n">
+        <v>40000629571</v>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -17713,6 +20131,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N303" t="n">
+        <v>40000629719</v>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -17770,6 +20196,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N304" t="n">
+        <v>40000629720</v>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -17827,6 +20261,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N305" t="n">
+        <v>40000629721</v>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -17884,6 +20326,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N306" t="n">
+        <v>40000629722</v>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -17941,6 +20391,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N307" t="n">
+        <v>40000629950</v>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -17998,6 +20456,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N308" t="n">
+        <v>40000600837</v>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -18055,6 +20521,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N309" t="n">
+        <v>40000602404</v>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -18112,6 +20586,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N310" t="n">
+        <v>40000602405</v>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -18169,6 +20651,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N311" t="n">
+        <v>40000602406</v>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -18226,6 +20716,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N312" t="n">
+        <v>40000602407</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -18283,6 +20781,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N313" t="n">
+        <v>40000602408</v>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -18340,6 +20846,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N314" t="n">
+        <v>40000602409</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -18397,6 +20911,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N315" t="n">
+        <v>40000602410</v>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -18454,6 +20976,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N316" t="n">
+        <v>40000602411</v>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -18511,6 +21041,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N317" t="n">
+        <v>40000602412</v>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -18568,6 +21106,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N318" t="n">
+        <v>40000602413</v>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -18625,6 +21171,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N319" t="n">
+        <v>40000602414</v>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -18682,6 +21236,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N320" t="n">
+        <v>40000602415</v>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -18739,6 +21301,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N321" t="n">
+        <v>40000602416</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -18796,6 +21366,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N322" t="n">
+        <v>40000602418</v>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -18853,6 +21431,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N323" t="n">
+        <v>40000602421</v>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -18910,6 +21496,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N324" t="n">
+        <v>40000604575</v>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -18967,6 +21561,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N325" t="n">
+        <v>40000604576</v>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -19024,6 +21626,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N326" t="n">
+        <v>40000604577</v>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -19081,6 +21691,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N327" t="n">
+        <v>40000604578</v>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -19138,6 +21756,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N328" t="n">
+        <v>40000604617</v>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -19195,6 +21821,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N329" t="n">
+        <v>40000604618</v>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -19252,6 +21886,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N330" t="n">
+        <v>40000604624</v>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -19309,6 +21951,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N331" t="n">
+        <v>40000604883</v>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -19366,6 +22016,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N332" t="n">
+        <v>40000604884</v>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -19423,6 +22081,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N333" t="n">
+        <v>40000604885</v>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -19480,6 +22146,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N334" t="n">
+        <v>40000604886</v>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -19537,6 +22211,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N335" t="n">
+        <v>40000604887</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -19594,6 +22276,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N336" t="n">
+        <v>40000604888</v>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -19651,6 +22341,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N337" t="n">
+        <v>40000604889</v>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -19708,6 +22406,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N338" t="n">
+        <v>40000608893</v>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -19765,6 +22471,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N339" t="n">
+        <v>40000608894</v>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -19822,6 +22536,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N340" t="n">
+        <v>40000608895</v>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -19879,6 +22601,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N341" t="n">
+        <v>40000608896</v>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -19936,6 +22666,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N342" t="n">
+        <v>40000608897</v>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -19993,6 +22731,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N343" t="n">
+        <v>40000608898</v>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -20050,6 +22796,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N344" t="n">
+        <v>40000608899</v>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -20107,6 +22861,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N345" t="n">
+        <v>40000608900</v>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -20164,6 +22926,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N346" t="n">
+        <v>40000608901</v>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -20221,6 +22991,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N347" t="n">
+        <v>40000608902</v>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -20278,6 +23056,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N348" t="n">
+        <v>40000608903</v>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -20335,6 +23121,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N349" t="n">
+        <v>40000608904</v>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -20392,6 +23186,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N350" t="n">
+        <v>40000608905</v>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -20449,6 +23251,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N351" t="n">
+        <v>40000610344</v>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -20506,6 +23316,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N352" t="n">
+        <v>40000610345</v>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -20563,6 +23381,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N353" t="n">
+        <v>40000610346</v>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -20620,6 +23446,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N354" t="n">
+        <v>40000610347</v>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -20677,6 +23511,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N355" t="n">
+        <v>40000610348</v>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -20734,6 +23576,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N356" t="n">
+        <v>40000610349</v>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -20791,6 +23641,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N357" t="n">
+        <v>40000610350</v>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -20848,6 +23706,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N358" t="n">
+        <v>40000610351</v>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -20905,6 +23771,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N359" t="n">
+        <v>40000610352</v>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -20962,6 +23836,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N360" t="n">
+        <v>40000610353</v>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -21019,6 +23901,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N361" t="n">
+        <v>40000610354</v>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -21076,6 +23966,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N362" t="n">
+        <v>40000610355</v>
+      </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -21133,6 +24031,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N363" t="n">
+        <v>40000610356</v>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -21190,6 +24096,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N364" t="n">
+        <v>40000610357</v>
+      </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -21247,6 +24161,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N365" t="n">
+        <v>40000610358</v>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -21304,6 +24226,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N366" t="n">
+        <v>40000610405</v>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -21361,6 +24291,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N367" t="n">
+        <v>40000610406</v>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -21418,6 +24356,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N368" t="n">
+        <v>40000610407</v>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -21475,6 +24421,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N369" t="n">
+        <v>40000610408</v>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -21532,6 +24486,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N370" t="n">
+        <v>40000610409</v>
+      </c>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -21589,6 +24551,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N371" t="n">
+        <v>40000610410</v>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -21646,6 +24616,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N372" t="n">
+        <v>40000610411</v>
+      </c>
+      <c r="O372" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -21703,6 +24681,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N373" t="n">
+        <v>40000610412</v>
+      </c>
+      <c r="O373" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -21760,6 +24746,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N374" t="n">
+        <v>40000610413</v>
+      </c>
+      <c r="O374" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -21817,6 +24811,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N375" t="n">
+        <v>40000610414</v>
+      </c>
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -21874,6 +24876,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N376" t="n">
+        <v>40000610415</v>
+      </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -21931,6 +24941,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N377" t="n">
+        <v>40000610416</v>
+      </c>
+      <c r="O377" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -21988,6 +25006,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N378" t="n">
+        <v>40000610417</v>
+      </c>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -22045,6 +25071,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N379" t="n">
+        <v>40000610418</v>
+      </c>
+      <c r="O379" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -22102,6 +25136,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N380" t="n">
+        <v>40000610419</v>
+      </c>
+      <c r="O380" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -22159,6 +25201,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N381" t="n">
+        <v>40000610420</v>
+      </c>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -22216,6 +25266,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N382" t="n">
+        <v>40000610421</v>
+      </c>
+      <c r="O382" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -22273,6 +25331,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N383" t="n">
+        <v>40000610422</v>
+      </c>
+      <c r="O383" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -22330,6 +25396,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N384" t="n">
+        <v>40000610423</v>
+      </c>
+      <c r="O384" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -22387,6 +25461,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N385" t="n">
+        <v>40000610424</v>
+      </c>
+      <c r="O385" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -22444,6 +25526,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N386" t="n">
+        <v>40000610425</v>
+      </c>
+      <c r="O386" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -22501,6 +25591,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N387" t="n">
+        <v>40000610426</v>
+      </c>
+      <c r="O387" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -22558,6 +25656,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N388" t="n">
+        <v>40000610427</v>
+      </c>
+      <c r="O388" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -22615,6 +25721,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N389" t="n">
+        <v>40000610428</v>
+      </c>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -22672,6 +25786,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N390" t="n">
+        <v>40000610429</v>
+      </c>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -22729,6 +25851,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N391" t="n">
+        <v>40000610430</v>
+      </c>
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -22786,6 +25916,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N392" t="n">
+        <v>40000610431</v>
+      </c>
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -22843,6 +25981,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N393" t="n">
+        <v>40000610432</v>
+      </c>
+      <c r="O393" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -22900,6 +26046,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N394" t="n">
+        <v>40000610433</v>
+      </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -22957,6 +26111,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N395" t="n">
+        <v>40000610434</v>
+      </c>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -23014,6 +26176,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N396" t="n">
+        <v>40000610435</v>
+      </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -23071,6 +26241,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N397" t="n">
+        <v>40000610436</v>
+      </c>
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -23128,6 +26306,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N398" t="n">
+        <v>40000612601</v>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -23185,6 +26371,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N399" t="n">
+        <v>40000615433</v>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -23242,6 +26436,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N400" t="n">
+        <v>40000615434</v>
+      </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -23299,6 +26501,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N401" t="n">
+        <v>40000618309</v>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -23356,6 +26566,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N402" t="n">
+        <v>40000618310</v>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -23413,6 +26631,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N403" t="n">
+        <v>40000618311</v>
+      </c>
+      <c r="O403" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -23470,6 +26696,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N404" t="n">
+        <v>40000618312</v>
+      </c>
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -23527,6 +26761,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N405" t="n">
+        <v>40000618313</v>
+      </c>
+      <c r="O405" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -23584,6 +26826,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N406" t="n">
+        <v>40000618314</v>
+      </c>
+      <c r="O406" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -23641,6 +26891,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N407" t="n">
+        <v>40000618315</v>
+      </c>
+      <c r="O407" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -23698,6 +26956,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N408" t="n">
+        <v>40000618316</v>
+      </c>
+      <c r="O408" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -23755,6 +27021,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N409" t="n">
+        <v>40000618317</v>
+      </c>
+      <c r="O409" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -23812,6 +27086,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N410" t="n">
+        <v>40000618318</v>
+      </c>
+      <c r="O410" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -23869,6 +27151,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N411" t="n">
+        <v>40000618319</v>
+      </c>
+      <c r="O411" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -23926,6 +27216,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N412" t="n">
+        <v>40000618320</v>
+      </c>
+      <c r="O412" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -23983,6 +27281,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N413" t="n">
+        <v>40000618321</v>
+      </c>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -24040,6 +27346,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N414" t="n">
+        <v>40000618322</v>
+      </c>
+      <c r="O414" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -24097,6 +27411,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N415" t="n">
+        <v>40000621417</v>
+      </c>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -24154,6 +27476,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N416" t="n">
+        <v>40000623401</v>
+      </c>
+      <c r="O416" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -24211,6 +27541,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N417" t="n">
+        <v>40000623402</v>
+      </c>
+      <c r="O417" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -24268,6 +27606,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N418" t="n">
+        <v>40000623403</v>
+      </c>
+      <c r="O418" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -24325,6 +27671,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N419" t="n">
+        <v>40000623404</v>
+      </c>
+      <c r="O419" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -24382,6 +27736,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N420" t="n">
+        <v>40000623405</v>
+      </c>
+      <c r="O420" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -24439,6 +27801,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N421" t="n">
+        <v>40000623406</v>
+      </c>
+      <c r="O421" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -24496,6 +27866,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N422" t="n">
+        <v>40000623407</v>
+      </c>
+      <c r="O422" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -24553,6 +27931,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N423" t="n">
+        <v>40000623408</v>
+      </c>
+      <c r="O423" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -24610,6 +27996,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N424" t="n">
+        <v>40000623409</v>
+      </c>
+      <c r="O424" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -24667,6 +28061,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N425" t="n">
+        <v>40000623410</v>
+      </c>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -24724,6 +28126,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N426" t="n">
+        <v>40000623411</v>
+      </c>
+      <c r="O426" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -24781,6 +28191,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N427" t="n">
+        <v>40000623412</v>
+      </c>
+      <c r="O427" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -24838,6 +28256,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N428" t="n">
+        <v>40000623413</v>
+      </c>
+      <c r="O428" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -24895,6 +28321,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N429" t="n">
+        <v>40000623414</v>
+      </c>
+      <c r="O429" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -24952,6 +28386,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N430" t="n">
+        <v>40000623415</v>
+      </c>
+      <c r="O430" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -25009,6 +28451,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N431" t="n">
+        <v>40000623416</v>
+      </c>
+      <c r="O431" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -25066,6 +28516,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N432" t="n">
+        <v>40000627710</v>
+      </c>
+      <c r="O432" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -25123,6 +28581,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N433" t="n">
+        <v>40000627713</v>
+      </c>
+      <c r="O433" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -25180,6 +28646,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N434" t="n">
+        <v>40000627714</v>
+      </c>
+      <c r="O434" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -25237,6 +28711,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N435" t="n">
+        <v>40000627717</v>
+      </c>
+      <c r="O435" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -25294,6 +28776,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N436" t="n">
+        <v>40000627718</v>
+      </c>
+      <c r="O436" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -25351,6 +28841,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N437" t="n">
+        <v>40000627723</v>
+      </c>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -25408,6 +28906,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N438" t="n">
+        <v>40000627724</v>
+      </c>
+      <c r="O438" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -25465,6 +28971,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N439" t="n">
+        <v>40000627733</v>
+      </c>
+      <c r="O439" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -25522,6 +29036,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N440" t="n">
+        <v>40000627748</v>
+      </c>
+      <c r="O440" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -25579,6 +29101,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N441" t="n">
+        <v>40000627878</v>
+      </c>
+      <c r="O441" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -25636,6 +29166,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N442" t="n">
+        <v>40000627977</v>
+      </c>
+      <c r="O442" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -25693,6 +29231,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N443" t="n">
+        <v>40000628089</v>
+      </c>
+      <c r="O443" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -25750,6 +29296,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N444" t="n">
+        <v>40000628090</v>
+      </c>
+      <c r="O444" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -25807,6 +29361,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N445" t="n">
+        <v>40000628091</v>
+      </c>
+      <c r="O445" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -25864,6 +29426,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N446" t="n">
+        <v>40000628094</v>
+      </c>
+      <c r="O446" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -25921,6 +29491,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N447" t="n">
+        <v>40000628102</v>
+      </c>
+      <c r="O447" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -25978,6 +29556,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N448" t="n">
+        <v>40000628257</v>
+      </c>
+      <c r="O448" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -26035,6 +29621,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N449" t="n">
+        <v>40000628262</v>
+      </c>
+      <c r="O449" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -26092,6 +29686,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N450" t="n">
+        <v>40000628264</v>
+      </c>
+      <c r="O450" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -26149,6 +29751,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N451" t="n">
+        <v>40000628265</v>
+      </c>
+      <c r="O451" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -26206,6 +29816,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N452" t="n">
+        <v>40000628372</v>
+      </c>
+      <c r="O452" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -26263,6 +29881,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N453" t="n">
+        <v>40000628387</v>
+      </c>
+      <c r="O453" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -26320,6 +29946,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N454" t="n">
+        <v>40000629492</v>
+      </c>
+      <c r="O454" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -26377,6 +30011,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N455" t="n">
+        <v>40000629571</v>
+      </c>
+      <c r="O455" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -26434,6 +30076,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N456" t="n">
+        <v>40000629719</v>
+      </c>
+      <c r="O456" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -26491,6 +30141,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N457" t="n">
+        <v>40000629720</v>
+      </c>
+      <c r="O457" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -26548,6 +30206,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N458" t="n">
+        <v>40000629721</v>
+      </c>
+      <c r="O458" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -26605,6 +30271,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N459" t="n">
+        <v>40000629722</v>
+      </c>
+      <c r="O459" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -26660,6 +30334,14 @@
       <c r="M460" t="inlineStr">
         <is>
           <t>DEPUTADO FEDERAL</t>
+        </is>
+      </c>
+      <c r="N460" t="n">
+        <v>40000629950</v>
+      </c>
+      <c r="O460" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
         </is>
       </c>
     </row>
